--- a/library/export_pos.xlsx
+++ b/library/export_pos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85782E49-921D-4453-AFEA-6BED93EBC413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Republic of  the philippines</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Department of the Interior and Local Government</t>
   </si>
@@ -81,9 +77,6 @@
     <t>Received by:</t>
   </si>
   <si>
-    <t>SHOPPING AND SMALL VALUE PROCUREMENT COMMITTEE</t>
-  </si>
-  <si>
     <t>BIDS AND AWARDS COMMITTEE</t>
   </si>
   <si>
@@ -94,12 +87,15 @@
   </si>
   <si>
     <t>BEZALEEL O. SOLTURA</t>
+  </si>
+  <si>
+    <t>Republic of  the Philippines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
@@ -235,6 +231,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,7 +277,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,11 +600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,57 +618,55 @@
   <sheetData>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
-      <c r="D8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -686,7 +680,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -700,7 +694,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -738,7 +732,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -764,7 +758,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -777,9 +771,9 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -789,95 +783,95 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -894,7 +888,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -908,7 +902,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -945,14 +939,14 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -972,15 +966,15 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>22</v>
+      <c r="A36" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -989,14 +983,14 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1041,7 +1035,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1067,9 +1061,9 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
